--- a/7_modified_z_score/modified_z_score.xlsx
+++ b/7_modified_z_score/modified_z_score.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\math-for-machine-learning\7_modified_z_score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\math-for-machine-learning\7_modified_z_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE9D23E-A007-437C-8139-3F4F7EE11464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB975D2D-EA36-458F-9F2D-E120D5138AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="AVERAGE">Sheet1!#REF!</definedName>
-    <definedName name="AVG">Sheet1!#REF!</definedName>
-    <definedName name="avg_height">Sheet1!$A$10</definedName>
-    <definedName name="DHAVAL">Sheet1!#REF!</definedName>
-    <definedName name="median_abs_deviation">Sheet1!$E$11</definedName>
-    <definedName name="median_height">Sheet1!$E$10</definedName>
-    <definedName name="std_dev">Sheet1!$A$11</definedName>
+    <definedName name="AVERAGE">#REF!</definedName>
+    <definedName name="AVG">#REF!</definedName>
+    <definedName name="avg_height">#REF!</definedName>
+    <definedName name="avgheight">Sheet1!$B$9</definedName>
+    <definedName name="DHAVAL">#REF!</definedName>
+    <definedName name="MAD">Sheet1!$B$12</definedName>
+    <definedName name="median_abs_deviation">#REF!</definedName>
+    <definedName name="median_height">#REF!</definedName>
+    <definedName name="medianheight">Sheet1!$B$11</definedName>
+    <definedName name="STD">Sheet1!$B$10</definedName>
+    <definedName name="std_dev">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,48 +45,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Height</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Z Score</t>
   </si>
   <si>
-    <t>Mod Z Score</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
     <t>MAD</t>
   </si>
   <si>
-    <t>Height - median height</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>stddev</t>
-  </si>
-  <si>
-    <t>3 std range</t>
-  </si>
-  <si>
     <t>median</t>
   </si>
   <si>
     <t>Z score &gt; 3?</t>
   </si>
   <si>
-    <t>mod Z score &gt; 3.5 ?</t>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>Height-Median Height</t>
+  </si>
+  <si>
+    <t>Modified Z Score</t>
+  </si>
+  <si>
+    <t>Modified Z Score &gt; 3.5?</t>
   </si>
 </sst>
 </file>
@@ -104,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,18 +103,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,13 +134,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,366 +424,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6830BD-4DE1-400F-97BD-E82F3C931782}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
         <v>5.2</v>
       </c>
-      <c r="B2" s="1">
-        <f>(A2-avg_height)/std_dev</f>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:C8" si="0">(B2-avgheight)/STD</f>
         <v>-0.56709987626241831</v>
       </c>
-      <c r="C2" s="4" t="b">
-        <f>B2&gt;3</f>
+      <c r="D2" s="1" t="b">
+        <f>C2&gt;3</f>
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="F2">
-        <f>ABS(A2-median_height)</f>
+        <f t="shared" ref="E2:E8" si="1">ABS(B2-medianheight)</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="G2" s="1">
-        <f>0.6745*(E2-median_height)/median_abs_deviation</f>
+      <c r="F2" s="1">
+        <f>0.6745*(B2-medianheight)/MAD</f>
         <v>-0.28907142857142831</v>
       </c>
-      <c r="H2" s="4" t="b">
-        <f>G2&gt;3.5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="G2" s="1" t="b">
+        <f>F2&gt;3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B3" s="1">
-        <f>(A3-avg_height)/std_dev</f>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
         <v>-0.7396954907770672</v>
       </c>
-      <c r="C3" s="4" t="b">
-        <f t="shared" ref="C3:C8" si="0">B3&gt;3</f>
+      <c r="D3" s="1" t="b">
+        <f t="shared" ref="D3:D8" si="2">C3&gt;3</f>
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F3">
-        <f>ABS(A3-median_height)</f>
+        <f t="shared" si="1"/>
         <v>0.59999999999999964</v>
       </c>
-      <c r="G3" s="1">
-        <f>0.6745*(E3-median_height)/median_abs_deviation</f>
+      <c r="F3" s="1">
+        <f t="shared" ref="F2:F8" si="3">0.6745*(B3-medianheight)/MAD</f>
         <v>-0.57814285714285663</v>
       </c>
-      <c r="H3" s="4" t="b">
-        <f t="shared" ref="H3:H8" si="1">G3&gt;3.5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="G3" s="1" t="b">
+        <f t="shared" ref="G3:G8" si="4">F3&gt;3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
         <v>4.5</v>
       </c>
-      <c r="B4" s="1">
-        <f>(A4-avg_height)/std_dev</f>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
         <v>-0.96982297679659946</v>
       </c>
-      <c r="C4" s="4" t="b">
-        <f t="shared" si="0"/>
+      <c r="D4" s="1" t="b">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F4">
-        <f>ABS(A4-median_height)</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <f>0.6745*(E4-median_height)/median_abs_deviation</f>
-        <v>-0.9635714285714283</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="B5" s="1">
-        <f>(A5-avg_height)/std_dev</f>
-        <v>-0.39450426174776937</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="F5">
-        <f>ABS(A5-median_height)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <f>0.6745*(E5-median_height)/median_abs_deviation</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <f>(A6-avg_height)/std_dev</f>
-        <v>0.46847381082547584</v>
-      </c>
-      <c r="C6" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <f>ABS(A6-median_height)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G6" s="1">
-        <f>0.6745*(E6-median_height)/median_abs_deviation</f>
-        <v>1.4453571428571423</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <f>(A7-avg_height)/std_dev</f>
-        <v>2.194429955971966</v>
-      </c>
-      <c r="C7" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <f>ABS(A7-median_height)</f>
-        <v>4.5</v>
-      </c>
-      <c r="G7" s="1">
-        <f>0.6745*(E7-median_height)/median_abs_deviation</f>
-        <v>4.3360714285714277</v>
-      </c>
-      <c r="H7" s="5" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="F4" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.9635714285714283</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.39450426174776937</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46847381082547584</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4453571428571423</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.194429955971966</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3360714285714277</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
         <v>6.2</v>
       </c>
-      <c r="B8" s="1">
-        <f>(A8-avg_height)/std_dev</f>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
         <v>8.2188387864118289E-3</v>
       </c>
-      <c r="C8" s="4" t="b">
-        <f t="shared" si="0"/>
+      <c r="D8" s="1" t="b">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="F8">
-        <f>ABS(A8-median_height)</f>
+        <f t="shared" si="1"/>
         <v>0.70000000000000018</v>
       </c>
-      <c r="G8" s="1">
-        <f>0.6745*(E8-median_height)/median_abs_deviation</f>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
         <v>0.67449999999999999</v>
       </c>
-      <c r="H8" s="4" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f>AVERAGE(A2:A8)</f>
+      <c r="G8" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <f>AVERAGE(B2:B8)</f>
         <v>6.1857142857142859</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <f>_xlfn.STDEV.P(B2:B8)</f>
+        <v>1.7381669913434419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <f>MEDIAN(B2:B8)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
         <f>MEDIAN(E2:E8)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f>_xlfn.STDEV.P(A2:A8)</f>
-        <v>1.7381669913434419</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <f>MEDIAN(F2:F8)</f>
         <v>0.70000000000000018</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42676532-4AE6-44FF-965A-C610EE8DB39A}">
-  <dimension ref="A7:B18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>AVERAGE(A7:A13)</f>
-        <v>138.85714285714286</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>_xlfn.STDEV.P(A7:A13)</f>
-        <v>302.31224566257816</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>A15+3*A16</f>
-        <v>1045.7938798448774</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>MEDIAN(A7:A13)</f>
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
